--- a/output2/presence_change_metrics.xlsx
+++ b/output2/presence_change_metrics.xlsx
@@ -489,28 +489,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54366758</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>54366758</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54366758</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54366758</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>54366758</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>54366758</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>54366758</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>380567306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -659,28 +659,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111744807</v>
+        <v>57378049</v>
       </c>
       <c r="C8" t="n">
-        <v>110156731</v>
+        <v>55789973</v>
       </c>
       <c r="D8" t="n">
-        <v>108630890</v>
+        <v>54264132</v>
       </c>
       <c r="E8" t="n">
-        <v>105438000</v>
+        <v>51071242</v>
       </c>
       <c r="F8" t="n">
-        <v>102558717</v>
+        <v>48191959</v>
       </c>
       <c r="G8" t="n">
-        <v>99134831</v>
+        <v>44768073</v>
       </c>
       <c r="H8" t="n">
-        <v>96716207</v>
+        <v>42349449</v>
       </c>
       <c r="I8" t="n">
-        <v>734380183</v>
+        <v>353812877</v>
       </c>
     </row>
     <row r="9">
@@ -690,28 +690,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55399392</v>
+        <v>1032634</v>
       </c>
       <c r="C9" t="n">
-        <v>57185193</v>
+        <v>2818435</v>
       </c>
       <c r="D9" t="n">
-        <v>58790945</v>
+        <v>4424187</v>
       </c>
       <c r="E9" t="n">
-        <v>62436223</v>
+        <v>8069465</v>
       </c>
       <c r="F9" t="n">
-        <v>64134792</v>
+        <v>9768034</v>
       </c>
       <c r="G9" t="n">
-        <v>66884757</v>
+        <v>12517999</v>
       </c>
       <c r="H9" t="n">
-        <v>71199244</v>
+        <v>16832486</v>
       </c>
       <c r="I9" t="n">
-        <v>436030546</v>
+        <v>55463240</v>
       </c>
     </row>
   </sheetData>
@@ -787,28 +787,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135594</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>322549</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>949930</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>909944</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>930410</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>206755</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3455182</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6863221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -818,28 +818,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79997471</v>
+        <v>1756115</v>
       </c>
       <c r="C3" t="n">
-        <v>269165699</v>
+        <v>1758923</v>
       </c>
       <c r="D3" t="n">
-        <v>397528756</v>
+        <v>1641607</v>
       </c>
       <c r="E3" t="n">
-        <v>809416849</v>
+        <v>1562178</v>
       </c>
       <c r="F3" t="n">
-        <v>834594467</v>
+        <v>1486481</v>
       </c>
       <c r="G3" t="n">
-        <v>532570580</v>
+        <v>1335442</v>
       </c>
       <c r="H3" t="n">
-        <v>2923273822</v>
+        <v>9540746</v>
       </c>
       <c r="I3" t="n">
-        <v>74146743</v>
+        <v>1116261</v>
       </c>
     </row>
     <row r="4">
@@ -880,28 +880,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>774391755</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>569885495</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>835959656</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>323807940</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>418105189</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>425844937</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3347994972</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4037045852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -911,28 +911,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>335730</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>893245</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3545989</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3295095</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4516511</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5043353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>17629923</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>14938318</v>
       </c>
     </row>
     <row r="7">
@@ -942,28 +942,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>135594</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>322549</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>949930</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>909944</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>930410</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>206755</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3455182</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6863221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -973,28 +973,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>451017922</v>
+        <v>306044</v>
       </c>
       <c r="C8" t="n">
-        <v>451487580</v>
+        <v>1046416</v>
       </c>
       <c r="D8" t="n">
-        <v>422494352</v>
+        <v>1542318</v>
       </c>
       <c r="E8" t="n">
-        <v>401886907</v>
+        <v>3158704</v>
       </c>
       <c r="F8" t="n">
-        <v>383032612</v>
+        <v>3253027</v>
       </c>
       <c r="G8" t="n">
-        <v>344085021</v>
+        <v>2064308</v>
       </c>
       <c r="H8" t="n">
-        <v>2454004394</v>
+        <v>11370817</v>
       </c>
       <c r="I8" t="n">
-        <v>293928195</v>
+        <v>254727</v>
       </c>
     </row>
     <row r="9">
@@ -1035,28 +1035,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3038147</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2238348</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3292179</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1282757</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1657340</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1689758</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>13198529</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>15890134</v>
       </c>
     </row>
     <row r="11">
@@ -1066,28 +1066,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82573003</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>225539127</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>900935016</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>838966468</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1150052965</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1284365257</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4482431836</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3793380956</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
